--- a/excel/hien_trang_he_thong.xlsx
+++ b/excel/hien_trang_he_thong.xlsx
@@ -12,521 +12,668 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="247">
   <si>
     <t xml:space="preserve">HIỆN TRẠNG HỆ THỐNG</t>
   </si>
   <si>
-    <t xml:space="preserve">Ngày: 14:47:03 23/04/2024</t>
+    <t xml:space="preserve">Ngày: 17:45:25 06/05/2024</t>
   </si>
   <si>
     <t xml:space="preserve">43C01338_C</t>
   </si>
   <si>
-    <t xml:space="preserve">14:46 23/04/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cty Tam Minh</t>
+    <t xml:space="preserve">17:44 06/05/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giầy Bình Định</t>
   </si>
   <si>
     <t xml:space="preserve">Tắt máy</t>
   </si>
   <si>
+    <t xml:space="preserve">PHAM THANH THUAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48166002843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tắt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C01340_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:45 06/05/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gỗ Minh Dương</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bật máy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGUYEN QUOC PHUC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490117001821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C03401_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lý Thánh Tông, X. Lộc Trì, H. Phú Lộc, Thừa Thiên Huế</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRAN DINH DO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">510097002587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C03402_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kho mới .Phước Hiệp thành</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyen Van Luc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">790156015350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C03880_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tạ Quang Bửu, P. Hòa Hiệp Bắc, Q. Liên Chiểu, TP. Đà Nẵng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LE DAI HUYNH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">480177015083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C05815_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quốc Lộ 14B, X. Hòa Khương, H. Hòa Vang, TP. Đà Nẵng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LE CHI VINH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">790161060561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C06100_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICD HÒA CẦM</t>
+  </si>
+  <si>
     <t xml:space="preserve">LAI XE DANG XUAT</t>
   </si>
   <si>
-    <t xml:space="preserve">Tắt</t>
+    <t xml:space="preserve">43C06120_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lạc Long Quân, TT. Lăng Cô, H. Phú Lộc, Thừa Thiên Huế</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRAN TAN GIAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">480130003236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C06147_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cao Tốc Cam Lộ - La Sơn, P. Hương Hồ, TX. Hương Trà, Thừa Thiên Huế</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C07724_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9E, Davasan, Seponh, Savannakhet, Lào</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LU DINH HIEU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">480118480930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C10905_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:58 06/05/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quốc Lộ 9, TT. Khe Sanh, H. Hướng Hóa, Quảng Trị</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGUYEN DUY MINH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490087001672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C10911_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSM DEPOT Phú bài .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGUYEN VAN TAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">480122493687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C10954_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C10972_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUYNH DANG NGHIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">480141004145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C10985_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X. Thủy Phù, TX. Hương Thủy, Thừa Thiên Huế</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGUYEN CONG TAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">460102000849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C11028_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quốc Lộ 1A, X. Thủy Bằng, TX. Hương Thủy, Thừa Thiên Huế</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C11072_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGUYEN LAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">480090482483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C11214_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yết Kiêu, P. Thọ Quang, Q. Sơn Trà, TP. Đà Nẵng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGUYEN VAN HAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">460166670286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C11241_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:10 06/05/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Thế Minh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">480014480577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C11256_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THAI VAN THIEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">510072000153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C11287_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seponh, Savannakhet, Lào</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRAN CONG TU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">510140002467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C11608_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quốc Lộ 9, TT. Lao Bảo, H. Hướng Hóa, Quảng Trị</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHAN VAN THANG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">620135004685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C11819_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C14819_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Phú, TT. Lao Bảo, H. Hướng Hóa, Quảng Trị</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGUYEN CONG TRONG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">310166873935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C14828_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAO VAN HOA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">480147005230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C14847_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Văn Phú Chiến</t>
+  </si>
+  <si>
+    <t xml:space="preserve">480079481764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C14861_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C14899_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quốc Lộ 1A, X. Lộc Thủy, H. Phú Lộc, Thừa Thiên Huế</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAO VAN THANH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490067001106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C17045_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPOT GHL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANG NGOC PHUONG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">480039485188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C17049_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quốc Lộ 1A, X. Phong Thu, H. Phong Điền, Thừa Thiên Huế</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGUYEN VAN LIEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">480070481684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C18106_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRAN DINH NGHIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490128002046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C18190_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hải Vân - Túy Loan, X. Hòa Liên, H. Hòa Vang, TP. Đà Nẵng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đinh Văn Dũng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">740109000485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bật</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C18192_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cty Sedovina ( trang thiết bị trường học)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGUYEN VAN PHUNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490105000678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C18195_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LE ANH DE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79016002772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C18198_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRINH VAN PHUC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">480098480221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C19416_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Văn Là</t>
+  </si>
+  <si>
+    <t xml:space="preserve">460152000538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C19509_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kim Phụng, P. Hương Văn, TX. Hương Trà, Thừa Thiên Huế</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Minh Hiếu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">480128493818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C19555_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGUYEN PHU QUYET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">480112482103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C19591_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. Hòa Thọ Đông, Q. Cẩm Lệ, TP. Đà Nẵng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Minh Ánh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">480057480747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C21207_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAO NGOC TIEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">480105481612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C21224_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quốc Lộ 1A, X. Lộc Bổn, H. Phú Lộc, Thừa Thiên Huế</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C21259_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quốc Lộ 1A, X. Phong An, H. Phong Điền, Thừa Thiên Huế</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGUYENVANSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">480127481720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C21286_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:37 06/05/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAI VAN THACH B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">480132017710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C22563_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Văn Hiến, P. Khuê Mỹ, Q. Ngũ Hành Sơn, TP. Đà Nẵng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C22636_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vành Đai Nam Đà Nẵng, X. Hòa Phước, H. Hòa Vang, TP. Đà Nẵng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LE DINH CHINH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">480142017962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C22665_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cầu Bà Rén, X. Quế Xuân 1, H. Quế Sơn, Quảng Nam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHAM THANH LUU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490105000713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C22676_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quốc Lộ 1A, P. Điện An, TX. Điện Bàn, Quảng Nam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGUYEN TRUONG AN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490100000736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C22684_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGUYEN VAN CHANH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">480038480362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C22696_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cầu Câu Lâu, X. Duy Phước, H. Duy Xuyên, Quảng Nam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43E02743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Lương Bằng, P. Hòa Hiệp Nam, Q. Liên Chiểu, TP. Đà Nẵng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGUYEN VAN THANH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490126000136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43H02193</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HUYNH DUC BAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">480096488168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43H02198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Minh Trung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">480133015128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43H03154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X. Lộc Vĩnh, H. Phú Lộc, Thừa Thiên Huế</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGUYEN KHANH DUY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">560084003354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43H03217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quốc Lộ 1A, X. Bình Trung, H. Thăng Bình, Quảng Nam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGUYEN DUC HUY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490103000685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77C17619_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Tất Thành, P. Hòa Khánh Bắc, Q. Liên Chiểu, TP. Đà Nẵng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAI DUC SANG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">480122487981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15C00677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:25 15/09/2023</t>
   </si>
   <si>
     <t xml:space="preserve">43C01339_C</t>
   </si>
   <si>
-    <t xml:space="preserve">ICD HÒA CẦM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C01340_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lê Văn Hiến, P. Khuê Mỹ, Q. Ngũ Hành Sơn, TP. Đà Nẵng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bật máy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NGUYEN QUOC PHUC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">490117001821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C03401_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Phước Tân, P. Hòa Thọ Đông, Q. Cẩm Lệ, TP. Đà Nẵng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRAN DINH DO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">510097002587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C03402_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:38 23/04/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quốc Lộ 1A, TT. Lăng Cô, H. Phú Lộc, Thừa Thiên Huế</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyen Van Luc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">790156015350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bật</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C03880_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:44 23/04/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P. Phú Bài, TX. Hương Thủy, Thừa Thiên Huế</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LE DAI HUYNH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">480177015083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C05815_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cty Sedovina ( trang thiết bị trường học)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LE CHI VINH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">790161060561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C06100_C</t>
+    <t xml:space="preserve">10:56 05/05/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C07914_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:43 25/04/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGUYEN TAN THUAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">480113480764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C11008_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Duẩn, X. Hải Thượng, H. Hải Lăng, Quảng Trị</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PHAM DUY HAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">480072481677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C19588_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:52 06/05/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Văn Anh Vũ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">460156005843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C21288_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:43 06/05/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43C22638_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:52 06/05/2024</t>
   </si>
   <si>
     <t xml:space="preserve">Hoàng Thị Loan, P. Hòa Minh, Q. Liên Chiểu, TP. Đà Nẵng</t>
   </si>
   <si>
-    <t xml:space="preserve">NGUYEN PHU QUYET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">480112482103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C06120_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yết Kiêu, P. Thọ Quang, Q. Sơn Trà, TP. Đà Nẵng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRAN TAN GIAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">480130003236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C06147_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSM DEPOT Phú bài .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NGUYEN CUONG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">480918481157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C07724_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LU DINH HIEU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">480118480930</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C07914_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NGUYEN TAN THUAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">480113480764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C10911_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lạc Long Quân, TT. Lăng Cô, H. Phú Lộc, Thừa Thiên Huế</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C10954_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:45 23/04/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X. Thủy Phù, TX. Hương Thủy, Thừa Thiên Huế</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRAN QUOC ANH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">480104481161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C10972_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bia phú bài</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C10985_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Số 1, P. An Hòa, TP. Huế, Thừa Thiên Huế</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NGUYEN CONG TAI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">460102000849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C11008_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C11028_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTY Sợi Phú Mai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRUONG HUNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54011496412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C11072_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NGUYEN LAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">480090482483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C11241_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X. Lộc Vĩnh, H. Phú Lộc, Thừa Thiên Huế</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lê Thế Minh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">480014480577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C11256_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEPOT GHL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THAI VAN THIEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">510072000153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C11287_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRAN CONG TU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">510140002467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C11819_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C14819_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NGUYEN CONG TRONG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">310166873935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C14828_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trần Phú, P. Hòa Thuận, TP. Tam Kỳ, Quảng Nam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C14847_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lý Thánh Tông, TT. Phú Lộc, H. Phú Lộc, Thừa Thiên Huế</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Văn Phú Chiến</t>
-  </si>
-  <si>
-    <t xml:space="preserve">480079481764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C14861_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trưng Nữ Vương, P. Hòa Thuận, TP. Tam Kỳ, Quảng Nam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C14899_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đường Số 11B, X. Hòa Liên, H. Hòa Vang, TP. Đà Nẵng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAO VAN THANH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">490067001106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C17045_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DANG NGOC PHUONG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">480039485188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C17049_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dương Cát Lợi, P. Hòa Khánh Nam, Q. Liên Chiểu, TP. Đà Nẵng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NGUYEN VAN LIEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">480070481684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C18106_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NGUYEN VAN LOC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">480103481467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C18190_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đinh Văn Dũng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">740109000485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C18192_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NGUYEN VAN PHUNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">490105000678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C18195_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trường Chinh, P. Hòa An, Q. Cẩm Lệ, TP. Đà Nẵng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C18198_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngũ Hành Sơn, P. Mỹ An, Q. Ngũ Hành Sơn, TP. Đà Nẵng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRINH VAN PHUC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">480098480221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C19416_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Hoàng, P. Hòa Thuận, TP. Tam Kỳ, Quảng Nam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Văn Là</t>
-  </si>
-  <si>
-    <t xml:space="preserve">460152000538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C19509_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:16 23/04/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lê Minh Hiếu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">480128493818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C19555_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cầu Hải Vân, TT. Lăng Cô, H. Phú Lộc, Thừa Thiên Huế</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRUONG PHU LUONG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">480128485808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C19588_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cách Mạng Tháng Tám, P. Khuê Trung, Q. Cẩm Lệ, TP. Đà Nẵng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lê Văn Anh Vũ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">460156005843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C19591_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lý Thường Kiệt, TT. Lao Bảo, H. Hướng Hóa, Quảng Trị</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C21207_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAO NGOC TIEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">480105481612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C21224_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C21259_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NGUYENVANSON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">480127481720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C21286_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEDO , CÔNG TY HUY HOÀNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAI VAN THACH B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">480132017710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C21288_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lê Văn Hiến, P. Hòa Hải, Q. Ngũ Hành Sơn, TP. Đà Nẵng</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PHAM DUY HAI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">480072481677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C22636_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trần Đại Nghĩa, P. Hòa Hải, Q. Ngũ Hành Sơn, TP. Đà Nẵng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LE DINH CHINH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">480142017962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C22676_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NGUYEN TRUONG AN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">490100000736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C22696_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trịnh Tố Tâm, TT. Lăng Cô, H. Phú Lộc, Thừa Thiên Huế</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NGUYEN LOI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">480127495581</t>
-  </si>
-  <si>
     <t xml:space="preserve">43F00876</t>
   </si>
   <si>
-    <t xml:space="preserve">Ngô Quyền, P. An Hải Bắc, Q. Sơn Trà, TP. Đà Nẵng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRAN DINH NGHIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">490128002046</t>
+    <t xml:space="preserve">09:34 03/05/2024</t>
   </si>
   <si>
     <t xml:space="preserve">43H02126</t>
   </si>
   <si>
+    <t xml:space="preserve">09:23 06/05/2024</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAO XUAN QUY</t>
   </si>
   <si>
@@ -536,6 +683,12 @@
     <t xml:space="preserve">43H02143</t>
   </si>
   <si>
+    <t xml:space="preserve">16:19 05/05/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loungaloun, 9E, Davasan, Seponh, Savannakhet, Lào</t>
+  </si>
+  <si>
     <t xml:space="preserve"> NGUYEN VINH QUANG</t>
   </si>
   <si>
@@ -545,175 +698,16 @@
     <t xml:space="preserve">43H02186</t>
   </si>
   <si>
+    <t xml:space="preserve">10:56 06/05/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KSN, 9E, Davasan, Seponh, Savannakhet, Lào</t>
+  </si>
+  <si>
     <t xml:space="preserve">Huỳnh Văn Tàu</t>
   </si>
   <si>
     <t xml:space="preserve">480108480391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43H02193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TT. Phú Đa, H. Phú Vang, Thừa Thiên Huế</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HUYNH DUC BAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">480096488168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43H02198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:29 23/04/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lê Duẩn, P. 3, TX. Quảng Trị, Quảng Trị</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Minh Trung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">480133015128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43H03217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tỉnh Lộ 614, P. Trường Xuân, TP. Tam Kỳ, Quảng Nam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NGUYEN DUC HUY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">490103000685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77C17619_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Tất Thành, P. Hòa Minh, Q. Liên Chiểu, TP. Đà Nẵng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAI DUC SANG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">480122487981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15C00677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:25 15/09/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C10905_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:35 23/04/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tạ Quang Bửu, P. Hòa Hiệp Bắc, Q. Liên Chiểu, TP. Đà Nẵng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NGUYEN DUY MINH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">490087001672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C11214_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08:09 23/04/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NGUYEN VAN HAI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">460166670286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C11608_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:09 23/04/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P. Thọ Quang, Q. Sơn Trà, TP. Đà Nẵng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHAN VAN THANG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">620135004685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C22563_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:10 23/04/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NGUYEN TAN TAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">490114000225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C22638_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:42 23/04/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C22665_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:42 23/04/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHAM THANH LUU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">490105000713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43C22684_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09:36 23/04/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NGUYEN VAN CHANH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">480038480362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43E02743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08:23 22/04/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NGUYEN VAN THANH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">490126000136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43H03154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08:23 23/04/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NGUYEN KHANH DUY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">560084003354</t>
   </si>
   <si>
     <t xml:space="preserve">STT</t>
@@ -991,7 +985,7 @@
     <col min="3" max="3" width="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14.84765625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="53.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="60" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="10.19921875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1015,49 +1009,49 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="4">
@@ -1074,16 +1068,16 @@
         <v>3</v>
       </c>
       <c r="E4" s="9">
-        <v>10.76</v>
+        <v>129.16</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="4">
-        <v>108.763519</v>
+        <v>109.131966</v>
       </c>
       <c r="H4" s="4">
-        <v>15.362514</v>
+        <v>13.789082</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>5</v>
@@ -1092,19 +1086,19 @@
         <v>6</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M4" s="6">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="N4" s="4">
         <v>0</v>
       </c>
       <c r="O4" s="6">
-        <v>16</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5">
@@ -1112,46 +1106,46 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E5" s="9">
-        <v>1.17</v>
+        <v>175.33</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G5" s="4">
-        <v>108.181648</v>
+        <v>108.620819</v>
       </c>
       <c r="H5" s="4">
-        <v>16.006857</v>
+        <v>15.442652</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M5" s="6">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c r="N5" s="4">
         <v>0</v>
       </c>
-      <c r="O5" s="6">
-        <v>16</v>
+      <c r="O5" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1159,46 +1153,46 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="8">
+        <v>38</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8">
-        <v>34</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="E6" s="9">
-        <v>111.97</v>
+        <v>116.4</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G6" s="4">
-        <v>108.246872</v>
+        <v>107.883484</v>
       </c>
       <c r="H6" s="4">
-        <v>16.030535</v>
+        <v>16.26997</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M6" s="6">
         <v>3</v>
       </c>
       <c r="N6" s="6">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="O6" s="6">
-        <v>228</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7">
@@ -1206,46 +1200,46 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E7" s="9">
-        <v>202.77</v>
+        <v>57.34</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G7" s="4">
-        <v>108.199203</v>
+        <v>107.46608</v>
       </c>
       <c r="H7" s="4">
-        <v>16.016167</v>
+        <v>16.520491</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M7" s="6">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="N7" s="4">
         <v>0</v>
       </c>
       <c r="O7" s="6">
-        <v>364</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
@@ -1253,46 +1247,46 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="8">
-        <v>47</v>
+        <v>23</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E8" s="9">
-        <v>120.6</v>
+        <v>134.7</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G8" s="4">
-        <v>108.042526</v>
+        <v>108.106117</v>
       </c>
       <c r="H8" s="4">
-        <v>16.260704</v>
+        <v>16.130983</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="M8" s="6">
-        <v>1</v>
-      </c>
-      <c r="N8" s="6">
-        <v>50</v>
+        <v>15</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
       </c>
       <c r="O8" s="6">
-        <v>117</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9">
@@ -1300,46 +1294,46 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E9" s="9">
-        <v>69.91</v>
+        <v>156.84</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G9" s="4">
-        <v>107.699684</v>
+        <v>108.1381</v>
       </c>
       <c r="H9" s="4">
-        <v>16.387688</v>
+        <v>15.948218</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M9" s="6">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="N9" s="4">
         <v>0</v>
       </c>
       <c r="O9" s="6">
-        <v>142</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10">
@@ -1347,46 +1341,46 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="9">
-        <v>191.51</v>
+        <v>10</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10" s="4">
-        <v>108.225624</v>
+        <v>108.181908</v>
       </c>
       <c r="H10" s="4">
-        <v>15.82993</v>
+        <v>16.006691</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>33</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M10" s="6">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="N10" s="4">
         <v>0</v>
       </c>
-      <c r="O10" s="6">
-        <v>356</v>
+      <c r="O10" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1396,26 +1390,26 @@
       <c r="B11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="8">
-        <v>24</v>
+      <c r="C11" s="4">
+        <v>0</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="9">
-        <v>85.62</v>
+        <v>132.4</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G11" s="4">
-        <v>108.165909</v>
+        <v>108.074707</v>
       </c>
       <c r="H11" s="4">
-        <v>16.070333</v>
+        <v>16.246214</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>36</v>
@@ -1424,16 +1418,16 @@
         <v>37</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M11" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" s="6">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="O11" s="6">
-        <v>153</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12">
@@ -1444,43 +1438,43 @@
         <v>38</v>
       </c>
       <c r="C12" s="8">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E12" s="9">
-        <v>114.87</v>
+        <v>122.71</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>39</v>
       </c>
       <c r="G12" s="4">
-        <v>108.237289</v>
+        <v>107.529533</v>
       </c>
       <c r="H12" s="4">
-        <v>16.113823</v>
+        <v>16.42881</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M12" s="6">
         <v>3</v>
       </c>
       <c r="N12" s="6">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="O12" s="6">
-        <v>242</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13">
@@ -1488,46 +1482,46 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="8">
+        <v>49</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="9">
+        <v>318.15</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="4">
+        <v>106.258781</v>
+      </c>
+      <c r="H13" s="4">
+        <v>16.681787</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="9">
-        <v>111.56</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="K13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="4">
-        <v>107.688248</v>
-      </c>
-      <c r="H13" s="4">
-        <v>16.385773</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="L13" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M13" s="6">
-        <v>146</v>
-      </c>
-      <c r="N13" s="4">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="N13" s="6">
+        <v>58</v>
       </c>
       <c r="O13" s="6">
-        <v>217</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
@@ -1535,25 +1529,25 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="8">
+        <v>47</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="9">
+        <v>286.89</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="4">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="9">
-        <v>72.67</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="G14" s="4">
-        <v>108.225723</v>
+        <v>106.720772</v>
       </c>
       <c r="H14" s="4">
-        <v>15.83057</v>
+        <v>16.62042</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>5</v>
@@ -1565,16 +1559,16 @@
         <v>48</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M14" s="6">
-        <v>35</v>
-      </c>
-      <c r="N14" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N14" s="6">
+        <v>216</v>
       </c>
       <c r="O14" s="6">
-        <v>193</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15">
@@ -1591,37 +1585,37 @@
         <v>3</v>
       </c>
       <c r="E15" s="9">
-        <v>0.05</v>
+        <v>221.95</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="G15" s="4">
-        <v>108.181885</v>
+        <v>107.687744</v>
       </c>
       <c r="H15" s="4">
-        <v>16.006739</v>
+        <v>16.38336</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M15" s="6">
         <v>6</v>
       </c>
-      <c r="N15" s="4">
-        <v>0</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0</v>
+      <c r="N15" s="6">
+        <v>148</v>
+      </c>
+      <c r="O15" s="6">
+        <v>356</v>
       </c>
     </row>
     <row r="16">
@@ -1629,46 +1623,46 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="8">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E16" s="9">
-        <v>135.69</v>
+        <v>153.97</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="G16" s="4">
-        <v>108.061958</v>
+        <v>108.181297</v>
       </c>
       <c r="H16" s="4">
-        <v>16.258215</v>
+        <v>16.006998</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M16" s="6">
-        <v>2</v>
-      </c>
-      <c r="N16" s="6">
-        <v>70</v>
+        <v>86</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
       </c>
       <c r="O16" s="6">
-        <v>80</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17">
@@ -1682,40 +1676,40 @@
         <v>0</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="9">
+        <v>126.77</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="4">
+        <v>107.465324</v>
+      </c>
+      <c r="H17" s="4">
+        <v>16.520357</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="9">
-        <v>99.34</v>
-      </c>
-      <c r="F17" s="4" t="s">
+      <c r="K17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="4">
-        <v>107.699707</v>
-      </c>
-      <c r="H17" s="4">
-        <v>16.387646</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="L17" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M17" s="6">
-        <v>22</v>
+        <v>327</v>
       </c>
       <c r="N17" s="4">
         <v>0</v>
       </c>
       <c r="O17" s="6">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18">
@@ -1723,46 +1717,46 @@
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="9">
+        <v>26.46</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="4">
+        <v>107.70005</v>
+      </c>
+      <c r="H18" s="4">
+        <v>16.387711</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="4">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="9">
-        <v>78.65</v>
-      </c>
-      <c r="F18" s="4" t="s">
+      <c r="K18" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="4">
-        <v>107.700371</v>
-      </c>
-      <c r="H18" s="4">
-        <v>16.38308</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="L18" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M18" s="6">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="N18" s="4">
         <v>0</v>
       </c>
       <c r="O18" s="6">
-        <v>121</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19">
@@ -1772,44 +1766,44 @@
       <c r="B19" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="4">
-        <v>0</v>
+      <c r="C19" s="8">
+        <v>59</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E19" s="9">
-        <v>46.28</v>
+        <v>181.83</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>62</v>
       </c>
       <c r="G19" s="4">
-        <v>107.547585</v>
+        <v>107.589432</v>
       </c>
       <c r="H19" s="4">
-        <v>16.489853</v>
+        <v>16.394966</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M19" s="6">
-        <v>129</v>
-      </c>
-      <c r="N19" s="4">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="N19" s="6">
+        <v>25</v>
       </c>
       <c r="O19" s="6">
-        <v>3</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20">
@@ -1817,46 +1811,46 @@
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="8">
+        <v>43</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="9">
+        <v>321.42</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="4">
+        <v>108.080391</v>
+      </c>
+      <c r="H20" s="4">
+        <v>16.237782</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="4">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="L20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="6">
         <v>3</v>
       </c>
-      <c r="E20" s="9">
-        <v>0.04</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="4">
-        <v>108.18161</v>
-      </c>
-      <c r="H20" s="4">
-        <v>16.007164</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M20" s="6">
-        <v>261</v>
-      </c>
-      <c r="N20" s="4">
-        <v>0</v>
-      </c>
-      <c r="O20" s="4">
-        <v>0</v>
+      <c r="N20" s="6">
+        <v>76</v>
+      </c>
+      <c r="O20" s="6">
+        <v>401</v>
       </c>
     </row>
     <row r="21">
@@ -1870,19 +1864,19 @@
         <v>0</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E21" s="9">
-        <v>77.22</v>
+        <v>242.43</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>67</v>
       </c>
       <c r="G21" s="4">
-        <v>107.69429</v>
+        <v>108.232094</v>
       </c>
       <c r="H21" s="4">
-        <v>16.388271</v>
+        <v>16.116198</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>5</v>
@@ -1894,16 +1888,16 @@
         <v>69</v>
       </c>
       <c r="L21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="6">
+        <v>3</v>
+      </c>
+      <c r="N21" s="6">
         <v>7</v>
       </c>
-      <c r="M21" s="6">
-        <v>409</v>
-      </c>
-      <c r="N21" s="4">
-        <v>0</v>
-      </c>
       <c r="O21" s="6">
-        <v>109</v>
+        <v>516</v>
       </c>
     </row>
     <row r="22">
@@ -1913,44 +1907,44 @@
       <c r="B22" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="4">
-        <v>0</v>
+      <c r="C22" s="8">
+        <v>32</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E22" s="9">
-        <v>90.91</v>
+        <v>330.97</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="G22" s="4">
-        <v>107.700722</v>
+        <v>106.54435</v>
       </c>
       <c r="H22" s="4">
-        <v>16.387873</v>
+        <v>16.616928</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M22" s="6">
-        <v>20</v>
-      </c>
-      <c r="N22" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N22" s="6">
+        <v>23</v>
       </c>
       <c r="O22" s="6">
-        <v>163</v>
+        <v>592</v>
       </c>
     </row>
     <row r="23">
@@ -1958,7 +1952,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C23" s="4">
         <v>0</v>
@@ -1967,16 +1961,16 @@
         <v>3</v>
       </c>
       <c r="E23" s="9">
-        <v>48.71</v>
+        <v>0.12</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="G23" s="4">
-        <v>107.999619</v>
+        <v>108.181679</v>
       </c>
       <c r="H23" s="4">
-        <v>16.305004</v>
+        <v>16.006748</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>5</v>
@@ -1988,16 +1982,16 @@
         <v>76</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M23" s="6">
-        <v>240</v>
+        <v>89</v>
       </c>
       <c r="N23" s="4">
         <v>0</v>
       </c>
-      <c r="O23" s="6">
-        <v>92</v>
+      <c r="O23" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2011,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E24" s="9">
-        <v>188.76</v>
+        <v>181.13</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G24" s="4">
-        <v>108.242912</v>
+        <v>106.176933</v>
       </c>
       <c r="H24" s="4">
-        <v>16.103657</v>
+        <v>16.673231</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>12</v>
@@ -2035,16 +2029,16 @@
         <v>80</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M24" s="6">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="N24" s="4">
         <v>0</v>
       </c>
       <c r="O24" s="6">
-        <v>313</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25">
@@ -2058,40 +2052,40 @@
         <v>0</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E25" s="9">
-        <v>0.15</v>
+        <v>287.62</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="G25" s="4">
-        <v>108.181465</v>
+        <v>106.591179</v>
       </c>
       <c r="H25" s="4">
-        <v>16.007103</v>
+        <v>16.624586</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M25" s="6">
-        <v>6</v>
-      </c>
-      <c r="N25" s="4">
-        <v>0</v>
-      </c>
-      <c r="O25" s="4">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="N25" s="6">
+        <v>38</v>
+      </c>
+      <c r="O25" s="6">
+        <v>395</v>
       </c>
     </row>
     <row r="26">
@@ -2099,46 +2093,46 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C26" s="8">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E26" s="9">
-        <v>143.42</v>
+        <v>101.39</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G26" s="4">
-        <v>108.062546</v>
+        <v>107.700043</v>
       </c>
       <c r="H26" s="4">
-        <v>16.257771</v>
+        <v>16.387465</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M26" s="6">
-        <v>1</v>
-      </c>
-      <c r="N26" s="6">
-        <v>6</v>
+        <v>445</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0</v>
       </c>
       <c r="O26" s="6">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27">
@@ -2146,46 +2140,46 @@
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="8">
-        <v>24</v>
+        <v>86</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E27" s="9">
-        <v>175.67</v>
+        <v>64.94</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="G27" s="4">
-        <v>108.220833</v>
+        <v>106.593391</v>
       </c>
       <c r="H27" s="4">
-        <v>16.122183</v>
+        <v>16.622988</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="M27" s="6">
-        <v>3</v>
-      </c>
-      <c r="N27" s="6">
-        <v>16</v>
+        <v>105</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0</v>
       </c>
       <c r="O27" s="6">
-        <v>296</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28">
@@ -2193,46 +2187,46 @@
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C28" s="4">
         <v>0</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E28" s="9">
-        <v>70.5</v>
+        <v>0.37</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="G28" s="4">
-        <v>108.459732</v>
+        <v>108.181595</v>
       </c>
       <c r="H28" s="4">
-        <v>15.564807</v>
+        <v>16.006788</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M28" s="6">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="N28" s="4">
         <v>0</v>
       </c>
       <c r="O28" s="6">
-        <v>114</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
@@ -2240,46 +2234,46 @@
         <v>26</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="8">
-        <v>51</v>
+        <v>93</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E29" s="9">
-        <v>122.59</v>
+        <v>125.32</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="G29" s="4">
-        <v>107.86837</v>
+        <v>107.466248</v>
       </c>
       <c r="H29" s="4">
-        <v>16.273888</v>
+        <v>16.520962</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M29" s="6">
-        <v>1</v>
-      </c>
-      <c r="N29" s="6">
-        <v>34</v>
+        <v>265</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0</v>
       </c>
       <c r="O29" s="6">
-        <v>209</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30">
@@ -2287,46 +2281,46 @@
         <v>27</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="4">
-        <v>0</v>
+        <v>96</v>
+      </c>
+      <c r="C30" s="8">
+        <v>43</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E30" s="9">
-        <v>72.03</v>
+        <v>262.53</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="G30" s="4">
-        <v>108.459511</v>
+        <v>108.081062</v>
       </c>
       <c r="H30" s="4">
-        <v>15.56319</v>
+        <v>16.236813</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M30" s="6">
-        <v>120</v>
-      </c>
-      <c r="N30" s="4">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="N30" s="6">
+        <v>191</v>
       </c>
       <c r="O30" s="6">
-        <v>126</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31">
@@ -2334,46 +2328,46 @@
         <v>28</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" s="4">
-        <v>0</v>
+        <v>97</v>
+      </c>
+      <c r="C31" s="8">
+        <v>54</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E31" s="9">
-        <v>58.62</v>
+        <v>198.58</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G31" s="4">
-        <v>108.11058</v>
+        <v>107.919289</v>
       </c>
       <c r="H31" s="4">
-        <v>16.083858</v>
+        <v>16.275381</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M31" s="6">
+        <v>4</v>
+      </c>
+      <c r="N31" s="6">
         <v>7</v>
       </c>
-      <c r="M31" s="6">
-        <v>13</v>
-      </c>
-      <c r="N31" s="6">
-        <v>1</v>
-      </c>
       <c r="O31" s="6">
-        <v>149</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32">
@@ -2381,46 +2375,46 @@
         <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="8">
-        <v>30</v>
+        <v>101</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E32" s="9">
-        <v>214.04</v>
+        <v>193.57</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="G32" s="4">
-        <v>108.221016</v>
+        <v>108.242737</v>
       </c>
       <c r="H32" s="4">
-        <v>16.122272</v>
+        <v>16.104012</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M32" s="6">
-        <v>3</v>
-      </c>
-      <c r="N32" s="6">
-        <v>87</v>
+        <v>157</v>
+      </c>
+      <c r="N32" s="4">
+        <v>0</v>
       </c>
       <c r="O32" s="6">
-        <v>345</v>
+        <v>312</v>
       </c>
     </row>
     <row r="33">
@@ -2428,7 +2422,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C33" s="4">
         <v>0</v>
@@ -2437,37 +2431,37 @@
         <v>3</v>
       </c>
       <c r="E33" s="9">
-        <v>109.86</v>
+        <v>175.21</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G33" s="4">
-        <v>108.159424</v>
+        <v>107.338272</v>
       </c>
       <c r="H33" s="4">
-        <v>16.048605</v>
+        <v>16.598993</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M33" s="6">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="N33" s="4">
         <v>0</v>
       </c>
       <c r="O33" s="6">
-        <v>308</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34">
@@ -2475,46 +2469,46 @@
         <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C34" s="4">
         <v>0</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E34" s="9">
-        <v>41.23</v>
+        <v>43.66</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G34" s="4">
-        <v>108.225517</v>
+        <v>108.181709</v>
       </c>
       <c r="H34" s="4">
-        <v>15.829601</v>
+        <v>16.006643</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M34" s="6">
-        <v>354</v>
+        <v>155</v>
       </c>
       <c r="N34" s="4">
         <v>0</v>
       </c>
       <c r="O34" s="6">
-        <v>67</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35">
@@ -2522,46 +2516,46 @@
         <v>32</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C35" s="8">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E35" s="9">
-        <v>278.42</v>
+        <v>288.81</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="G35" s="4">
-        <v>108.218498</v>
+        <v>108.085953</v>
       </c>
       <c r="H35" s="4">
-        <v>16.121284</v>
+        <v>16.078201</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="M35" s="6">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="N35" s="6">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="O35" s="6">
-        <v>366</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36">
@@ -2569,46 +2563,46 @@
         <v>33</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C36" s="4">
         <v>0</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E36" s="9">
-        <v>191.76</v>
+        <v>98.14</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="G36" s="4">
-        <v>108.225403</v>
+        <v>108.225548</v>
       </c>
       <c r="H36" s="4">
-        <v>15.829641</v>
+        <v>15.829897</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M36" s="6">
-        <v>47</v>
+        <v>194</v>
       </c>
       <c r="N36" s="4">
         <v>0</v>
       </c>
       <c r="O36" s="6">
-        <v>396</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37">
@@ -2616,46 +2610,46 @@
         <v>34</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C37" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E37" s="9">
-        <v>42.1</v>
+        <v>24.65</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="G37" s="4">
-        <v>108.18428</v>
+        <v>108.246857</v>
       </c>
       <c r="H37" s="4">
-        <v>16.045458</v>
+        <v>16.104656</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M37" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N37" s="6">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="O37" s="6">
-        <v>62</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38">
@@ -2663,46 +2657,46 @@
         <v>35</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" s="8">
-        <v>47</v>
+        <v>124</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E38" s="9">
-        <v>76.86</v>
+        <v>0.6</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="G38" s="4">
-        <v>108.240936</v>
+        <v>106.157227</v>
       </c>
       <c r="H38" s="4">
-        <v>16.042408</v>
+        <v>16.673347</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M38" s="6">
-        <v>3</v>
-      </c>
-      <c r="N38" s="6">
-        <v>53</v>
+        <v>568</v>
+      </c>
+      <c r="N38" s="4">
+        <v>0</v>
       </c>
       <c r="O38" s="6">
-        <v>131</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -2710,46 +2704,46 @@
         <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C39" s="4">
         <v>0</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E39" s="9">
-        <v>99.09</v>
+        <v>269.28</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="G39" s="4">
-        <v>108.464668</v>
+        <v>106.589371</v>
       </c>
       <c r="H39" s="4">
-        <v>15.582314</v>
+        <v>16.622629</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M39" s="6">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="N39" s="4">
         <v>0</v>
       </c>
       <c r="O39" s="6">
-        <v>202</v>
+        <v>469</v>
       </c>
     </row>
     <row r="40">
@@ -2757,46 +2751,46 @@
         <v>37</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C40" s="8">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E40" s="9">
-        <v>198.58</v>
+        <v>248.81</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="G40" s="4">
-        <v>108.242905</v>
+        <v>107.483711</v>
       </c>
       <c r="H40" s="4">
-        <v>16.103386</v>
+        <v>16.517702</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M40" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N40" s="6">
-        <v>175</v>
+        <v>9</v>
       </c>
       <c r="O40" s="6">
-        <v>374</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41">
@@ -2804,46 +2798,46 @@
         <v>38</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C41" s="8">
-        <v>42</v>
+        <v>134</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E41" s="9">
-        <v>102.66</v>
+        <v>290.07</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="G41" s="4">
-        <v>108.089554</v>
+        <v>108.23053</v>
       </c>
       <c r="H41" s="4">
-        <v>16.222538</v>
+        <v>16.117266</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M41" s="6">
-        <v>3</v>
-      </c>
-      <c r="N41" s="6">
-        <v>69</v>
+        <v>11</v>
+      </c>
+      <c r="N41" s="4">
+        <v>0</v>
       </c>
       <c r="O41" s="6">
-        <v>172</v>
+        <v>450</v>
       </c>
     </row>
     <row r="42">
@@ -2851,46 +2845,46 @@
         <v>39</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C42" s="8">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E42" s="9">
-        <v>105.57</v>
+        <v>221.41</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G42" s="4">
-        <v>108.20607</v>
+        <v>108.193253</v>
       </c>
       <c r="H42" s="4">
-        <v>16.017469</v>
+        <v>16.01495</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M42" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N42" s="6">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="O42" s="6">
-        <v>251</v>
+        <v>442</v>
       </c>
     </row>
     <row r="43">
@@ -2898,7 +2892,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C43" s="4">
         <v>0</v>
@@ -2907,37 +2901,37 @@
         <v>3</v>
       </c>
       <c r="E43" s="9">
-        <v>0.55</v>
+        <v>119.13</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="G43" s="4">
-        <v>106.595718</v>
+        <v>108.242661</v>
       </c>
       <c r="H43" s="4">
-        <v>16.617207</v>
+        <v>16.103594</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>6</v>
+        <v>142</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M43" s="6">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="N43" s="4">
         <v>0</v>
       </c>
       <c r="O43" s="6">
-        <v>5</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44">
@@ -2945,46 +2939,46 @@
         <v>41</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C44" s="4">
-        <v>0</v>
+        <v>144</v>
+      </c>
+      <c r="C44" s="8">
+        <v>55</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E44" s="9">
-        <v>204.6</v>
+        <v>218.65</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="G44" s="4">
-        <v>108.21846</v>
+        <v>107.730034</v>
       </c>
       <c r="H44" s="4">
-        <v>16.121521</v>
+        <v>16.365555</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M44" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N44" s="6">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="O44" s="6">
-        <v>319</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45">
@@ -2992,7 +2986,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C45" s="4">
         <v>0</v>
@@ -3001,37 +2995,37 @@
         <v>3</v>
       </c>
       <c r="E45" s="9">
-        <v>154.23</v>
+        <v>187.88</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="G45" s="4">
-        <v>108.218391</v>
+        <v>107.449112</v>
       </c>
       <c r="H45" s="4">
-        <v>16.121607</v>
+        <v>16.54855</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>6</v>
+        <v>148</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M45" s="6">
-        <v>3</v>
-      </c>
-      <c r="N45" s="6">
-        <v>66</v>
+        <v>27</v>
+      </c>
+      <c r="N45" s="4">
+        <v>0</v>
       </c>
       <c r="O45" s="6">
-        <v>213</v>
+        <v>318</v>
       </c>
     </row>
     <row r="46">
@@ -3039,46 +3033,46 @@
         <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C46" s="8">
-        <v>26</v>
+        <v>150</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0</v>
       </c>
       <c r="D46" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E46" s="9">
+        <v>249.16</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G46" s="4">
+        <v>106.590408</v>
+      </c>
+      <c r="H46" s="4">
+        <v>16.623461</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M46" s="6">
         <v>3</v>
       </c>
-      <c r="E46" s="9">
-        <v>139.25</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G46" s="4">
-        <v>108.07608</v>
-      </c>
-      <c r="H46" s="4">
-        <v>16.244663</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M46" s="6">
-        <v>2</v>
-      </c>
-      <c r="N46" s="6">
-        <v>65</v>
+      <c r="N46" s="4">
+        <v>0</v>
       </c>
       <c r="O46" s="6">
-        <v>241</v>
+        <v>349</v>
       </c>
     </row>
     <row r="47">
@@ -3086,46 +3080,46 @@
         <v>44</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C47" s="4">
-        <v>0</v>
+        <v>154</v>
+      </c>
+      <c r="C47" s="8">
+        <v>28</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E47" s="9">
-        <v>68.39</v>
+        <v>228.99</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G47" s="4">
-        <v>108.324654</v>
+        <v>108.252357</v>
       </c>
       <c r="H47" s="4">
-        <v>15.83735</v>
+        <v>16.019749</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>149</v>
+        <v>33</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M47" s="6">
-        <v>60</v>
-      </c>
-      <c r="N47" s="4">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="N47" s="6">
+        <v>16</v>
       </c>
       <c r="O47" s="6">
-        <v>171</v>
+        <v>298</v>
       </c>
     </row>
     <row r="48">
@@ -3133,46 +3127,46 @@
         <v>45</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C48" s="8">
-        <v>17</v>
+        <v>156</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E48" s="9">
-        <v>134.71</v>
+        <v>162.66</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G48" s="4">
-        <v>108.259338</v>
+        <v>108.208168</v>
       </c>
       <c r="H48" s="4">
-        <v>16.006044</v>
+        <v>15.965232</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M48" s="6">
-        <v>4</v>
-      </c>
-      <c r="N48" s="6">
-        <v>80</v>
+        <v>66</v>
+      </c>
+      <c r="N48" s="4">
+        <v>0</v>
       </c>
       <c r="O48" s="6">
-        <v>231</v>
+        <v>376</v>
       </c>
     </row>
     <row r="49">
@@ -3180,46 +3174,46 @@
         <v>46</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C49" s="4">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="C49" s="8">
+        <v>50</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E49" s="9">
-        <v>167.05</v>
+        <v>277.59</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G49" s="4">
-        <v>108.254951</v>
+        <v>108.294701</v>
       </c>
       <c r="H49" s="4">
-        <v>15.977581</v>
+        <v>15.825606</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M49" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N49" s="6">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="O49" s="6">
-        <v>404</v>
+        <v>379</v>
       </c>
     </row>
     <row r="50">
@@ -3227,46 +3221,46 @@
         <v>47</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C50" s="4">
         <v>0</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E50" s="9">
-        <v>168.87</v>
+        <v>190.55</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>31</v>
+        <v>165</v>
       </c>
       <c r="G50" s="4">
-        <v>108.225594</v>
+        <v>108.238449</v>
       </c>
       <c r="H50" s="4">
-        <v>15.830087</v>
+        <v>15.908574</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M50" s="6">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="N50" s="4">
         <v>0</v>
       </c>
       <c r="O50" s="6">
-        <v>366</v>
+        <v>466</v>
       </c>
     </row>
     <row r="51">
@@ -3274,46 +3268,46 @@
         <v>48</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C51" s="8">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E51" s="9">
-        <v>135.12</v>
+        <v>49.42</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="G51" s="4">
-        <v>108.044388</v>
+        <v>108.181374</v>
       </c>
       <c r="H51" s="4">
-        <v>16.262682</v>
+        <v>16.006632</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M51" s="6">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N51" s="6">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="O51" s="6">
-        <v>205</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52">
@@ -3321,46 +3315,46 @@
         <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C52" s="8">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E52" s="9">
-        <v>210.25</v>
+        <v>257.22</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G52" s="4">
-        <v>108.235909</v>
+        <v>108.27449</v>
       </c>
       <c r="H52" s="4">
-        <v>16.081818</v>
+        <v>15.859424</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M52" s="6">
         <v>3</v>
       </c>
       <c r="N52" s="6">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="O52" s="6">
-        <v>379</v>
+        <v>390</v>
       </c>
     </row>
     <row r="53">
@@ -3368,46 +3362,46 @@
         <v>50</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C53" s="8">
-        <v>8</v>
+        <v>173</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E53" s="9">
-        <v>68.81</v>
+        <v>170.7</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="G53" s="4">
-        <v>108.238129</v>
+        <v>108.129448</v>
       </c>
       <c r="H53" s="4">
-        <v>16.049141</v>
+        <v>16.110893</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="M53" s="6">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="N53" s="6">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="O53" s="6">
-        <v>116</v>
+        <v>302</v>
       </c>
     </row>
     <row r="54">
@@ -3415,46 +3409,46 @@
         <v>51</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C54" s="4">
         <v>0</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E54" s="9">
-        <v>79.35</v>
+        <v>351.69</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="G54" s="4">
-        <v>107.697647</v>
+        <v>106.588379</v>
       </c>
       <c r="H54" s="4">
-        <v>16.389128</v>
+        <v>16.622667</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M54" s="6">
-        <v>173</v>
+        <v>49</v>
       </c>
       <c r="N54" s="4">
         <v>0</v>
       </c>
       <c r="O54" s="6">
-        <v>104</v>
+        <v>549</v>
       </c>
     </row>
     <row r="55">
@@ -3462,46 +3456,46 @@
         <v>52</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C55" s="8">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E55" s="9">
-        <v>76.32</v>
+        <v>206.15</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="G55" s="4">
-        <v>108.237076</v>
+        <v>108.129021</v>
       </c>
       <c r="H55" s="4">
-        <v>16.052877</v>
+        <v>16.11208</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M55" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N55" s="6">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="O55" s="6">
-        <v>168</v>
+        <v>293</v>
       </c>
     </row>
     <row r="56">
@@ -3509,7 +3503,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C56" s="4">
         <v>0</v>
@@ -3518,37 +3512,37 @@
         <v>3</v>
       </c>
       <c r="E56" s="9">
-        <v>105.89</v>
+        <v>122.17</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G56" s="4">
-        <v>107.719749</v>
+        <v>107.999207</v>
       </c>
       <c r="H56" s="4">
-        <v>16.450747</v>
+        <v>16.305044</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M56" s="6">
-        <v>3</v>
-      </c>
-      <c r="N56" s="4">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="N56" s="6">
+        <v>2</v>
       </c>
       <c r="O56" s="6">
-        <v>201</v>
+        <v>283</v>
       </c>
     </row>
     <row r="57">
@@ -3556,46 +3550,46 @@
         <v>54</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C57" s="8">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="E57" s="9">
-        <v>149.7</v>
+        <v>223.24</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G57" s="4">
-        <v>107.185089</v>
+        <v>108.414658</v>
       </c>
       <c r="H57" s="4">
-        <v>16.740385</v>
+        <v>15.665334</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M57" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N57" s="6">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="O57" s="6">
-        <v>246</v>
+        <v>347</v>
       </c>
     </row>
     <row r="58">
@@ -3603,46 +3597,46 @@
         <v>55</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C58" s="4">
         <v>0</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E58" s="9">
-        <v>79.24</v>
+        <v>164.41</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G58" s="4">
-        <v>108.482277</v>
+        <v>108.153473</v>
       </c>
       <c r="H58" s="4">
-        <v>15.546821</v>
+        <v>16.089241</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M58" s="6">
-        <v>162</v>
+        <v>70</v>
       </c>
       <c r="N58" s="4">
         <v>0</v>
       </c>
       <c r="O58" s="6">
-        <v>121</v>
+        <v>260</v>
       </c>
     </row>
     <row r="59">
@@ -3650,46 +3644,46 @@
         <v>56</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C59" s="8">
-        <v>36</v>
+        <v>195</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="9">
-        <v>227.65</v>
+        <v>196</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>193</v>
+        <v>32</v>
       </c>
       <c r="G59" s="4">
-        <v>108.161209</v>
+        <v>108.181152</v>
       </c>
       <c r="H59" s="4">
-        <v>16.084127</v>
+        <v>16.006857</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>194</v>
+        <v>33</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>195</v>
+        <v>33</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M59" s="6">
-        <v>3</v>
-      </c>
-      <c r="N59" s="6">
-        <v>10</v>
-      </c>
-      <c r="O59" s="6">
-        <v>317</v>
+        <v>186</v>
+      </c>
+      <c r="N59" s="4">
+        <v>0</v>
+      </c>
+      <c r="O59" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -3697,46 +3691,46 @@
         <v>57</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C60" s="4">
-        <v>0</v>
+        <v>197</v>
+      </c>
+      <c r="C60" s="8">
+        <v>24</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E60" s="4">
-        <v>0</v>
+        <v>198</v>
+      </c>
+      <c r="E60" s="9">
+        <v>1.87</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="G60" s="4">
-        <v>108.181152</v>
+        <v>106.594849</v>
       </c>
       <c r="H60" s="4">
-        <v>16.006857</v>
+        <v>16.624617</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M60" s="6">
-        <v>186</v>
-      </c>
-      <c r="N60" s="4">
-        <v>0</v>
-      </c>
-      <c r="O60" s="4">
-        <v>0</v>
+        <v>656</v>
+      </c>
+      <c r="N60" s="6">
+        <v>2</v>
+      </c>
+      <c r="O60" s="6">
+        <v>16</v>
       </c>
     </row>
     <row r="61">
@@ -3744,25 +3738,25 @@
         <v>58</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C61" s="8">
-        <v>56</v>
+        <v>199</v>
+      </c>
+      <c r="C61" s="4">
+        <v>0</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E61" s="9">
-        <v>70.15</v>
+        <v>0.09</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="G61" s="4">
-        <v>108.110123</v>
+        <v>108.181976</v>
       </c>
       <c r="H61" s="4">
-        <v>16.127161</v>
+        <v>16.00679</v>
       </c>
       <c r="I61" s="4" t="s">
         <v>5</v>
@@ -3774,16 +3768,16 @@
         <v>202</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M61" s="6">
-        <v>18</v>
+        <v>414</v>
       </c>
       <c r="N61" s="4">
         <v>0</v>
       </c>
-      <c r="O61" s="6">
-        <v>167</v>
+      <c r="O61" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -3797,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="D62" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="9">
+        <v>155.74</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="E62" s="9">
-        <v>2.69</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="G62" s="4">
-        <v>108.18187</v>
+        <v>107.202995</v>
       </c>
       <c r="H62" s="4">
-        <v>16.006664</v>
+        <v>16.730566</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J62" s="4" t="s">
         <v>205</v>
@@ -3821,16 +3815,16 @@
         <v>206</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M62" s="6">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N62" s="4">
         <v>0</v>
       </c>
       <c r="O62" s="6">
-        <v>6</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63">
@@ -3847,37 +3841,37 @@
         <v>208</v>
       </c>
       <c r="E63" s="9">
-        <v>188.84</v>
+        <v>196.61</v>
       </c>
       <c r="F63" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G63" s="4">
+        <v>106.596062</v>
+      </c>
+      <c r="H63" s="4">
+        <v>16.623747</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J63" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="G63" s="4">
-        <v>108.215729</v>
-      </c>
-      <c r="H63" s="4">
-        <v>16.121984</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J63" s="4" t="s">
+      <c r="K63" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="K63" s="4" t="s">
-        <v>211</v>
-      </c>
       <c r="L63" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M63" s="6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="N63" s="6">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c r="O63" s="6">
-        <v>300</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64">
@@ -3885,46 +3879,46 @@
         <v>61</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C64" s="4">
+        <v>0</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C64" s="4">
-        <v>0</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>213</v>
-      </c>
       <c r="E64" s="9">
-        <v>125.51</v>
+        <v>0.18</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="G64" s="4">
-        <v>107.70005</v>
+        <v>108.18187</v>
       </c>
       <c r="H64" s="4">
-        <v>16.387033</v>
+        <v>16.0068</v>
       </c>
       <c r="I64" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>214</v>
+        <v>33</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>215</v>
+        <v>33</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M64" s="6">
-        <v>3</v>
-      </c>
-      <c r="N64" s="6">
-        <v>187</v>
-      </c>
-      <c r="O64" s="6">
-        <v>187</v>
+        <v>455</v>
+      </c>
+      <c r="N64" s="4">
+        <v>0</v>
+      </c>
+      <c r="O64" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3932,46 +3926,46 @@
         <v>62</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C65" s="4">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="C65" s="8">
+        <v>15</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E65" s="9">
-        <v>70.19</v>
+        <v>35.65</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>56</v>
+        <v>215</v>
       </c>
       <c r="G65" s="4">
-        <v>107.690865</v>
+        <v>108.17067</v>
       </c>
       <c r="H65" s="4">
-        <v>16.38529</v>
+        <v>16.067448</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M65" s="6">
-        <v>63</v>
-      </c>
-      <c r="N65" s="4">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="N65" s="6">
+        <v>24</v>
       </c>
       <c r="O65" s="6">
-        <v>97</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66">
@@ -3979,46 +3973,46 @@
         <v>63</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C66" s="4">
         <v>0</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="E66" s="9">
-        <v>127.42</v>
+        <v>217</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G66" s="4">
-        <v>108.246063</v>
+        <v>108.181702</v>
       </c>
       <c r="H66" s="4">
-        <v>16.032169</v>
+        <v>16.006762</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>221</v>
+        <v>111</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M66" s="6">
-        <v>1</v>
-      </c>
-      <c r="N66" s="6">
-        <v>85</v>
-      </c>
-      <c r="O66" s="6">
-        <v>85</v>
+        <v>8</v>
+      </c>
+      <c r="M66" s="4">
+        <v>0</v>
+      </c>
+      <c r="N66" s="4">
+        <v>0</v>
+      </c>
+      <c r="O66" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -4026,46 +4020,46 @@
         <v>64</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C67" s="8">
-        <v>6</v>
+        <v>218</v>
+      </c>
+      <c r="C67" s="4">
+        <v>0</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E67" s="9">
-        <v>85.24</v>
+        <v>263.26</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="G67" s="4">
-        <v>108.22506</v>
+        <v>106.590378</v>
       </c>
       <c r="H67" s="4">
-        <v>15.831075</v>
+        <v>16.624016</v>
       </c>
       <c r="I67" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M67" s="6">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="N67" s="6">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="O67" s="6">
-        <v>155</v>
+        <v>325</v>
       </c>
     </row>
     <row r="68">
@@ -4073,46 +4067,46 @@
         <v>65</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C68" s="4">
+        <v>0</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E68" s="9">
+        <v>276.63</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G68" s="4">
+        <v>106.578178</v>
+      </c>
+      <c r="H68" s="4">
+        <v>16.625549</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="K68" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C68" s="4">
-        <v>0</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="E68" s="9">
-        <v>0.18</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G68" s="4">
-        <v>108.181892</v>
-      </c>
-      <c r="H68" s="4">
-        <v>16.006786</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J68" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="K68" s="4" t="s">
-        <v>229</v>
-      </c>
       <c r="L68" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M68" s="6">
-        <v>11</v>
-      </c>
-      <c r="N68" s="4">
-        <v>0</v>
-      </c>
-      <c r="O68" s="4">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="N68" s="6">
+        <v>6</v>
+      </c>
+      <c r="O68" s="6">
+        <v>477</v>
       </c>
     </row>
     <row r="69">
@@ -4120,46 +4114,46 @@
         <v>66</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C69" s="8">
+        <v>52</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E69" s="6">
+        <v>237</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="G69" s="4">
+        <v>106.56076</v>
+      </c>
+      <c r="H69" s="4">
+        <v>16.621128</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C69" s="4">
-        <v>0</v>
-      </c>
-      <c r="D69" s="4" t="s">
+      <c r="K69" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="E69" s="4">
-        <v>0</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G69" s="4">
-        <v>108.181656</v>
-      </c>
-      <c r="H69" s="4">
-        <v>16.006748</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J69" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="K69" s="4" t="s">
-        <v>233</v>
-      </c>
       <c r="L69" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M69" s="6">
-        <v>1094</v>
-      </c>
-      <c r="N69" s="4">
-        <v>0</v>
-      </c>
-      <c r="O69" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N69" s="6">
+        <v>11</v>
+      </c>
+      <c r="O69" s="6">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
